--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_167.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_167.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,708 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.0, 20.28)]</t>
+          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D', 'G', 'D', 'A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[('0:00:04.063000', '0:00:11.853000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:38.543000', '0:01:03.135000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(22.02, 30.4)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>schubert-winterreise_112</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[('0:00:13.420000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:02.360000', '0:00:07.560000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.52, 29.1)]</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(61.68, 67.26), (17.34, 24.4)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(5.88, 12.78)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08311603650586702</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.470042, 9.607823)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.013446, 21.856349)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
